--- a/gravity产品线库名.xlsx
+++ b/gravity产品线库名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>类别</t>
   </si>
@@ -483,7 +483,19 @@
     <t>浊度传感器更新需求：</t>
   </si>
   <si>
-    <t>浊度传感器的样例需要加 1. 代码前段需要解释NTU的意义以及转换的函数 2. 里面自带转换成NTU的函数</t>
+    <t xml:space="preserve">         浊度传感器的样例需要加 1. 代码前段需要解释NTU的意义以及转换的函数 2. 里面自带转换成NTU的函数</t>
+  </si>
+  <si>
+    <t>SHT1x 温湿度二合一传感器：</t>
+  </si>
+  <si>
+    <t>有写好的库文件！</t>
+  </si>
+  <si>
+    <t>流明光线传感器：</t>
+  </si>
+  <si>
+    <t>普通的模拟量读取</t>
   </si>
 </sst>
 </file>
@@ -491,9 +503,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -505,8 +517,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,43 +555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +563,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +586,58 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -610,40 +653,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,187 +676,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,11 +894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,20 +941,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,17 +963,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,10 +990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,137 +1002,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,6 +1141,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1478,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1596,7 +1611,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
@@ -1620,7 +1635,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
@@ -1766,7 +1781,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2"/>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
@@ -2164,6 +2179,22 @@
       </c>
       <c r="C31" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2175,6 +2206,11 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.dfrobot.com/product-80.html" tooltip="https://www.dfrobot.com/product-80.html"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1147" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1147"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://www.dfrobot.com/product-195.html" tooltip="https://www.dfrobot.com/product-195.html"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/gravity产品线库名.xlsx
+++ b/gravity产品线库名.xlsx
@@ -503,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -526,6 +526,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -533,7 +571,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +607,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,80 +654,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -676,187 +676,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,21 +890,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,9 +926,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,22 +968,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,10 +990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,19 +1002,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,112 +1023,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2"/>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
@@ -1683,7 +1683,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
@@ -1805,7 +1805,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C13" t="s">
@@ -2210,6 +2210,9 @@
     <hyperlink ref="B5" r:id="rId1" display="https://www.dfrobot.com/product-80.html" tooltip="https://www.dfrobot.com/product-80.html"/>
     <hyperlink ref="B6" r:id="rId2" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1147" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1147"/>
     <hyperlink ref="B12" r:id="rId3" display="https://www.dfrobot.com/product-195.html" tooltip="https://www.dfrobot.com/product-195.html"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1394" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1394"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1025" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1025"/>
+    <hyperlink ref="B13" r:id="rId6" display="https://www.dfrobot.com/product-681.html" tooltip="https://www.dfrobot.com/product-681.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/gravity产品线库名.xlsx
+++ b/gravity产品线库名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>类别</t>
   </si>
@@ -213,6 +213,9 @@
     <t>CO2_S</t>
   </si>
   <si>
+    <t>通用模拟量+</t>
+  </si>
+  <si>
     <t>https://www.dfrobot.com/product-195.html</t>
   </si>
   <si>
@@ -228,6 +231,9 @@
     <t>Flame_S</t>
   </si>
   <si>
+    <t>通用模拟量</t>
+  </si>
+  <si>
     <t>https://www.dfrobot.com/product-681.html</t>
   </si>
   <si>
@@ -279,6 +285,9 @@
     <t>0, 1</t>
   </si>
   <si>
+    <t>通用数字量读取</t>
+  </si>
+  <si>
     <t>https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1140</t>
   </si>
   <si>
@@ -309,6 +318,9 @@
     <t>5A_Relay_M</t>
   </si>
   <si>
+    <t>通用数字量写入</t>
+  </si>
+  <si>
     <t>工业应用</t>
   </si>
   <si>
@@ -379,6 +391,9 @@
   </si>
   <si>
     <t>Uint8_t</t>
+  </si>
+  <si>
+    <t>好几个样例代码</t>
   </si>
   <si>
     <t>机器人</t>
@@ -505,8 +520,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -526,7 +541,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,11 +578,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,37 +600,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,23 +654,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,14 +675,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -676,187 +691,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,6 +904,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -905,6 +944,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,45 +997,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -990,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,133 +1017,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,13 +1508,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5416666666667" customWidth="1"/>
     <col min="4" max="4" width="26.725" customWidth="1"/>
@@ -1507,6 +1522,7 @@
     <col min="6" max="6" width="30.4583333333333" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="13.0916666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1709,7 +1725,7 @@
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
@@ -1733,7 +1749,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C10" t="s">
@@ -1755,9 +1771,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
@@ -1778,23 +1794,26 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1802,23 +1821,26 @@
       <c r="H12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1826,25 +1848,28 @@
       <c r="H13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1852,97 +1877,109 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>81</v>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>87</v>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>92</v>
+      <c r="B17" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1953,44 +1990,44 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>103</v>
+      <c r="B19" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2"/>
-      <c r="B20" t="s">
-        <v>109</v>
+      <c r="B20" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1998,51 +2035,57 @@
       <c r="H20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -2050,23 +2093,26 @@
       <c r="H22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2"/>
-      <c r="B23" t="s">
-        <v>127</v>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -2074,23 +2120,26 @@
       <c r="H23" t="s">
         <v>21</v>
       </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2"/>
-      <c r="B24" t="s">
-        <v>132</v>
+      <c r="B24" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -2101,22 +2150,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -2127,44 +2176,44 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
-      <c r="B26" t="s">
-        <v>143</v>
+      <c r="B26" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="2"/>
-      <c r="B27" t="s">
-        <v>149</v>
+      <c r="B27" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -2172,29 +2221,32 @@
       <c r="H27" t="s">
         <v>21</v>
       </c>
+      <c r="I27" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2213,6 +2265,23 @@
     <hyperlink ref="B7" r:id="rId4" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1394" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1394"/>
     <hyperlink ref="B8" r:id="rId5" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1025" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1025"/>
     <hyperlink ref="B13" r:id="rId6" display="https://www.dfrobot.com/product-681.html" tooltip="https://www.dfrobot.com/product-681.html"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1195" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1195"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://www.dfrobot.com/product-1574.html" tooltip="https://www.dfrobot.com/product-1574.html"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://www.dfrobot.com/product-83.html" tooltip="https://www.dfrobot.com/product-83.html"/>
+    <hyperlink ref="B15" r:id="rId10" display="https://www.dfrobot.com/product-78.html" tooltip="https://www.dfrobot.com/product-78.html"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1023" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1023"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1140" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1140"/>
+    <hyperlink ref="B17" r:id="rId13" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=64" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=64"/>
+    <hyperlink ref="B18" r:id="rId14" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1474" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1474"/>
+    <hyperlink ref="B19" r:id="rId15" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1495" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1495"/>
+    <hyperlink ref="B20" r:id="rId16" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1470" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1470"/>
+    <hyperlink ref="B21" r:id="rId17" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1540" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1540"/>
+    <hyperlink ref="B22" r:id="rId18" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=572" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=572"/>
+    <hyperlink ref="B23" r:id="rId19" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=763" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=763"/>
+    <hyperlink ref="B24" r:id="rId20" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1358" tooltip="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1358"/>
+    <hyperlink ref="B25" r:id="rId21" display="https://www.dfrobot.com/product-1507.html" tooltip="https://www.dfrobot.com/product-1507.html"/>
+    <hyperlink ref="B26" r:id="rId22" display="https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1545"/>
+    <hyperlink ref="B27" r:id="rId23" display="https://www.dfrobot.com/product-399.html" tooltip="https://www.dfrobot.com/product-399.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/gravity产品线库名.xlsx
+++ b/gravity产品线库名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28665" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,9 +518,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -540,89 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -646,15 +563,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,6 +598,83 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -691,13 +691,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,169 +853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +904,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,7 +958,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,36 +974,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,19 +1017,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,112 +1038,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,12 +1511,13 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="26.725" customWidth="1"/>
     <col min="5" max="5" width="72.3666666666667" customWidth="1"/>
     <col min="6" max="6" width="30.4583333333333" customWidth="1"/>

--- a/gravity产品线库名.xlsx
+++ b/gravity产品线库名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28665" windowHeight="12600"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,10 +518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -541,7 +541,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,24 +584,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,9 +607,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,24 +629,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,37 +662,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,79 +691,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,6 +859,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -782,96 +872,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +903,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -924,17 +933,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,21 +972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -989,11 +983,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,19 +1017,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,55 +1038,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1095,55 +1095,55 @@
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,13 +1511,13 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5416666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="26.725" customWidth="1"/>
     <col min="5" max="5" width="72.3666666666667" customWidth="1"/>
     <col min="6" max="6" width="30.4583333333333" customWidth="1"/>
